--- a/data/schema/학생건강검사_2022년_항목및코드북.xlsx
+++ b/data/schema/학생건강검사_2022년_항목및코드북.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choiwooyeon/Desktop/국민대강의자료/AI빅데이터프로그래밍/조별과제/work/AIBP_Team_Project/data/schema/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/choiwooyeon/Desktop/국민대강의자료/AI빅데이터프로그래밍/조별과제/교육부_학생검사표본/교육부_학생건강검사 표본조사 rawdata_20221231/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD4EECB-4404-2741-8ED8-42B4A1033618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8ED6AF4-9CC7-B94A-8489-7C6692124868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14600" yWindow="-43200" windowWidth="76800" windowHeight="43200" xr2:uid="{B32ED4F8-521B-4231-A376-43854C9D1018}"/>
+    <workbookView xWindow="23360" yWindow="-20840" windowWidth="28800" windowHeight="16540" xr2:uid="{B32ED4F8-521B-4231-A376-43854C9D1018}"/>
   </bookViews>
   <sheets>
     <sheet name="2022년항목" sheetId="1" r:id="rId1"/>
@@ -1101,11 +1101,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1423,8 +1423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1036DA3F-88CB-4E50-B902-4E083F6DEBF6}">
   <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1464,7 +1464,7 @@
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" ht="18">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -2092,7 +2092,7 @@
       <c r="A73" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="B73" s="10" t="s">
+      <c r="B73" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C73" s="6"/>
@@ -2101,21 +2101,21 @@
       <c r="A74" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B74" s="10"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="6"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B75" s="10"/>
+      <c r="B75" s="9"/>
       <c r="C75" s="6"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="10"/>
+      <c r="B76" s="9"/>
       <c r="C76" s="6"/>
     </row>
     <row r="77" spans="1:3" ht="72">
